--- a/biology/Botanique/Square_du_Docteur-Grancher/Square_du_Docteur-Grancher.xlsx
+++ b/biology/Botanique/Square_du_Docteur-Grancher/Square_du_Docteur-Grancher.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square du Docteur-Grancher est un espace vert du 20e arrondissement de Paris.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le square est localisé au milieu de l'espace défini par la rue de la Bidassoa, la rue Orfila, la place Martin-Nadaud, la rue Sorbier et la rue Villiers-de-L'Isle-Adam.
 Il est desservi à proximité par les lignes 3 et 3 bis à la station Gambetta.
@@ -544,7 +558,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom lui a été donné en hommage au pédiatre Jacques-Joseph Grancher (1843-1907).
 </t>
@@ -575,12 +591,14 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Historiquement, le square a été créé sous forme d'un talus inaccessible surplombé par un îlot urbain comportant trois rues[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Historiquement, le square a été créé sous forme d'un talus inaccessible surplombé par un îlot urbain comportant trois rues :
 la rue de la Voulzie, parallèle à la rue de la Bidassoa, débutant rue Villiers-de-L'Isle-Adam et finissant par un petit escalier débouchant sur la rue Orfila,
 la rue Westermann, parallèle à la rue Orfila, débutant rue de la Voulzie et formant avec celle-ci un angle droit,
-la rue de la Cloche, parallèle à la rue de la Bidassoa, débutant rue Westermann et revenant à la rue Villiers-de-L'Isle-Adam. Son nom vient du fontis sur lequel est construit l'îlot[2].
+la rue de la Cloche, parallèle à la rue de la Bidassoa, débutant rue Westermann et revenant à la rue Villiers-de-L'Isle-Adam. Son nom vient du fontis sur lequel est construit l'îlot.
 Il est à noter que le square du Docteur-Grancher se trouve juste à la verticale du tunnel de Charonne (1 308 mètres) du chemin de fer de la ligne de Petite Ceinture.
 Le sous-sol instable des lieux a rendu inhabitable l'îlot urbain qui a finalement été démoli, les trois rues et le terrain libéré laissés en friche et condamnés. Le sous-sol a été stabilisé bien plus tard grâce à des injections de béton.
 Le square a fait l'objet de grands travaux de réaménagement et d'agrandissement pour une inauguration en 2006. La friche de l'ex-îlot urbain a été ajoutée au square où l'emprise des trois anciennes rues a été symbolisée par un pavage de trois nouvelles allées avec des plaques rappelant leur nom. L'escalier débouchant sur la rue Orfila a été rénové. Un nouvel accès au square a été créé au niveau de la rue Sorbier sous forme d'un escalier à flanc de coteau débouchant sur l'ex-rue de la Cloche. Le talus lui-même a été refait (correction de la pente et démolition des murs de soutènement des rues Sorbier et Orfila).
